--- a/biology/Botanique/Harv/Harv..xlsx
+++ b/biology/Botanique/Harv/Harv..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Henry Harvey est un médecin et un botaniste irlandais, né le 5 février 1811 à Summerville près de Limerick et mort le 15 mai 1866 à Torquay.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son titre de docteur en médecine en 1844 à Dublin. Il est colonial Treasurer au Cap de 1836 à 1842 où il récolte de nombreux spécimens végétaux. En 1844, il devient le conservateur de l’herbier du Trinity College de Dublin, puis, en 1848, professeur de botanique à la Royal Dublin Society, puis, en 1856, au Trinity College. De 1854 à 1856, il voyage à Ceylan, dans l’ouest de l’Australie, en Tasmanie... Il devient membre de la Linnean Society of London en 1857 et de la Royal Society en 1858. Il s’intéresse particulièrement aux algues marines. Harvey est un opposant à la théorie de l’évolution proposée par Charles Darwin (1809-1882). William Henry Harvey est devenu membre de la Royal Society le 3 juin 1858.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principaux ouvrages
-Harvey est notamment l’auteur de :
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Harvey est notamment l’auteur de :
 Manual of British Algae (1841),
 Phycologia Britannica (quatre volumes, 1846 à 1851),
 Nereis Australis (1847),
@@ -554,9 +573,43 @@
 Phycologica Australica (cinq volumes, 1858 à 1863),
 Thesaurus Capensis (deux volumes, 1859-1863),
 Index Generum Algarum (1860), avec Otto Wilhelm Sonder (1812-1881)
-Flora Capensis (trois volumes, 1859 à 1865).
-Liste partielle des publications
-1833. Div.II. Confervoideae. Div.III. Gloiocladeae. In, Hooker, W.J. (Ed.) The English flora of Sir James Edward Smith 5. London.
+Flora Capensis (trois volumes, 1859 à 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harv.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harv.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste partielle des publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1833. Div.II. Confervoideae. Div.III. Gloiocladeae. In, Hooker, W.J. (Ed.) The English flora of Sir James Edward Smith 5. London.
 1834. Algologhical illustrations. No. 1 Remarks on some British algae and descriptions of a new species recently added to our flora. J. Bot., Hooker 1: 296 - 305.
 1838. The genera of South African plants. Cape Topwn, 429 pp.
 Description of Ballia, a new genus of Algae. - Hooker's Journ. Bot.' Bd 2
@@ -584,37 +637,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Harv.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harv.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hommage</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir William Jackson Hooker (1785-1865) lui dédie en 1837 le genre Harveya de la famille des Scrophulariaceae.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -636,10 +658,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir William Jackson Hooker (1785-1865) lui dédie en 1837 le genre Harveya de la famille des Scrophulariaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harv.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harv.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
